--- a/DDAf_2025_Tableau_annexe_Tab16.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5C34061-25B1-4469-A81F-78066AB6349E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43ADD7B3-641B-4EAF-B1FB-7D6D6F17CE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{061F9B95-D340-4451-AF4F-26F197DC4BF6}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{E31CD75E-CB40-4306-A916-AB2A6303F4F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab16" sheetId="1" r:id="rId1"/>
@@ -585,7 +585,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "PaÃ­ses Africanos de LÃ­ngua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado ComÃºn del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: Author's calculations based on OECD Environment Statistics (database, updated December 2020) and population data from World Population Prospects 2024 - United Nations Department of Economic and Social Affairs Population Division.</t>
@@ -1493,7 +1493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B36A159-DD7D-4E45-A527-EBC35784825C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62596C9C-5F9D-4886-B1FF-AE85590A7652}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1501,15 +1501,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="14.140625" style="80" customWidth="1"/>
-    <col min="16" max="27" width="11.42578125" style="80" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="14.1796875" style="80" customWidth="1"/>
+    <col min="16" max="27" width="11.453125" style="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1539,7 +1539,7 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
     </row>
-    <row r="2" spans="1:27" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>28</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>8.6852809999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>30</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>18.802240999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>32</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>23.084558999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>34</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>27.407083</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>9.0632819999999992</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>38</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>9.8066420000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>40</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>13.896587</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>42</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>24.979748000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>44</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>8.7048880000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
         <v>46</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>12.048500000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="26"/>
       <c r="B13" s="27" t="s">
         <v>48</v>
@@ -2470,10 +2470,10 @@
         <v>242.65267399999999</v>
       </c>
       <c r="G13" s="29">
-        <v>3.7125949999999999</v>
+        <v>3.6880769999999998</v>
       </c>
       <c r="H13" s="30">
-        <v>5.982685</v>
+        <v>5.9316180000000003</v>
       </c>
       <c r="I13" s="28">
         <v>73079</v>
@@ -2488,10 +2488,10 @@
         <v>154.44970900000001</v>
       </c>
       <c r="M13" s="29">
-        <v>2.470561</v>
+        <v>2.604393</v>
       </c>
       <c r="N13" s="30">
-        <v>4.7450479999999997</v>
+        <v>4.9021100000000004</v>
       </c>
       <c r="O13" s="28">
         <v>6.5607059999999997</v>
@@ -2533,7 +2533,7 @@
         <v>15.018312</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>49</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>8.4211679999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>51</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>21.565148000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>53</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>13.053516999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>55</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>11.657565999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>57</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>14.719789</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>59</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>8.5977840000000008</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>61</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>10.302434</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>63</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>18.280835</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
         <v>65</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>18.639416000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26"/>
       <c r="B23" s="27" t="s">
         <v>67</v>
@@ -3298,10 +3298,10 @@
         <v>55.173175000000001</v>
       </c>
       <c r="G23" s="29">
-        <v>3.1002529999999999</v>
+        <v>3.1000480000000001</v>
       </c>
       <c r="H23" s="30">
-        <v>6.7847759999999999</v>
+        <v>6.7829569999999997</v>
       </c>
       <c r="I23" s="28">
         <v>108015</v>
@@ -3316,10 +3316,10 @@
         <v>101.847812</v>
       </c>
       <c r="M23" s="29">
-        <v>5.8618899999999998</v>
+        <v>5.8668360000000002</v>
       </c>
       <c r="N23" s="30">
-        <v>13.163949000000001</v>
+        <v>13.164300000000001</v>
       </c>
       <c r="O23" s="28">
         <v>10.611063</v>
@@ -3361,7 +3361,7 @@
         <v>11.453934</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>68</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>15.170939000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>70</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>13.966557999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>72</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>20.578378000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>74</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>6.6859099999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>76</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>8.7534310000000009</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>78</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>9.1162890000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>80</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>33.171871000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>82</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>9.3494150000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>84</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>9.5811139999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>86</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>10.199420999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>89</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>8.2315039999999993</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>91</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>8.6972430000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>93</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>9.3531969999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
         <v>95</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>7.2877000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="26"/>
       <c r="B38" s="27" t="s">
         <v>97</v>
@@ -4604,7 +4604,7 @@
         <v>8.3591130000000007</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>98</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>13.792177000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>100</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>25.412174</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>102</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>13.396076000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>104</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>18.933138</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>106</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>18.482603999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
         <v>108</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>18.59027</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="26"/>
       <c r="B45" s="27" t="s">
         <v>110</v>
@@ -5183,7 +5183,7 @@
         <v>20.907876999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>111</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>14.889616999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>113</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>16.943781999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>115</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>29.461207000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>117</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>17.630714000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>119</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>17.139095000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>121</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>26.108509000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>123</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>18.248830000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>125</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>18.269883</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>127</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>14.442493000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>129</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>16.579616000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>131</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>11.474448000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>133</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>15.134933999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>135</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>19.06157</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>137</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>15.658344</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
         <v>139</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>16.377345999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="26"/>
       <c r="B61" s="27" t="s">
         <v>141</v>
@@ -6446,10 +6446,10 @@
         <v>159.94737900000001</v>
       </c>
       <c r="G61" s="29">
-        <v>3.7831440000000001</v>
+        <v>3.8492820000000001</v>
       </c>
       <c r="H61" s="30">
-        <v>7.6443430000000001</v>
+        <v>7.7195770000000001</v>
       </c>
       <c r="I61" s="28">
         <v>280512</v>
@@ -6464,10 +6464,10 @@
         <v>324.62125400000002</v>
       </c>
       <c r="M61" s="29">
-        <v>7.7929469999999998</v>
+        <v>7.7740309999999999</v>
       </c>
       <c r="N61" s="30">
-        <v>15.803118</v>
+        <v>15.644133</v>
       </c>
       <c r="O61" s="28">
         <v>7.788144</v>
@@ -6509,7 +6509,7 @@
         <v>16.450037999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="48"/>
       <c r="B62" s="49" t="s">
         <v>142</v>
@@ -6527,10 +6527,10 @@
         <v>260.60278499999998</v>
       </c>
       <c r="G62" s="51">
-        <v>5.1310250000000002</v>
+        <v>5.0606439999999999</v>
       </c>
       <c r="H62" s="52">
-        <v>11.808280999999999</v>
+        <v>11.552286</v>
       </c>
       <c r="I62" s="50">
         <v>696934</v>
@@ -6545,10 +6545,10 @@
         <v>176.840585</v>
       </c>
       <c r="M62" s="51">
-        <v>3.5783450000000001</v>
+        <v>3.8447619999999998</v>
       </c>
       <c r="N62" s="52">
-        <v>7.952223</v>
+        <v>8.3914790000000004</v>
       </c>
       <c r="O62" s="50">
         <v>8.5307589999999998</v>
@@ -6590,7 +6590,7 @@
         <v>14.014802</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="48"/>
       <c r="B63" s="49" t="s">
         <v>143</v>
@@ -6608,10 +6608,10 @@
         <v>932.92593899999997</v>
       </c>
       <c r="G63" s="51">
-        <v>5.0137499999999999</v>
+        <v>5.0128539999999999</v>
       </c>
       <c r="H63" s="52">
-        <v>10.053051</v>
+        <v>10.070586</v>
       </c>
       <c r="I63" s="50">
         <v>1614783</v>
@@ -6626,10 +6626,10 @@
         <v>255.93380500000001</v>
       </c>
       <c r="M63" s="51">
-        <v>1.3742239999999999</v>
+        <v>1.3720220000000001</v>
       </c>
       <c r="N63" s="52">
-        <v>2.707713</v>
+        <v>2.7035079999999998</v>
       </c>
       <c r="O63" s="50">
         <v>55.270133999999999</v>
@@ -6671,7 +6671,7 @@
         <v>44.561236000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A64" s="53"/>
       <c r="B64" s="54" t="s">
         <v>144</v>
@@ -6689,10 +6689,10 @@
         <v>412.119169</v>
       </c>
       <c r="G64" s="56">
-        <v>2.831995</v>
+        <v>2.8322080000000001</v>
       </c>
       <c r="H64" s="57">
-        <v>7.5328920000000004</v>
+        <v>7.5359119999999997</v>
       </c>
       <c r="I64" s="55">
         <v>59309</v>
@@ -6707,10 +6707,10 @@
         <v>110.220043</v>
       </c>
       <c r="M64" s="56">
-        <v>0.76938099999999998</v>
+        <v>0.76941300000000001</v>
       </c>
       <c r="N64" s="57">
-        <v>2.072114</v>
+        <v>2.0728469999999999</v>
       </c>
       <c r="O64" s="55">
         <v>12.446578000000001</v>
@@ -6752,7 +6752,7 @@
         <v>28.068555</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A65" s="53"/>
       <c r="B65" s="58" t="s">
         <v>145</v>
@@ -6770,10 +6770,10 @@
         <v>906.92091500000004</v>
       </c>
       <c r="G65" s="60">
-        <v>8.620241</v>
+        <v>8.6177609999999998</v>
       </c>
       <c r="H65" s="61">
-        <v>16.809149000000001</v>
+        <v>16.810333</v>
       </c>
       <c r="I65" s="59">
         <v>1518184</v>
@@ -6788,10 +6788,10 @@
         <v>355.88001500000001</v>
       </c>
       <c r="M65" s="60">
-        <v>3.411438</v>
+        <v>3.4092060000000002</v>
       </c>
       <c r="N65" s="61">
-        <v>6.7128360000000002</v>
+        <v>6.7084599999999996</v>
       </c>
       <c r="O65" s="59">
         <v>72.157398000000001</v>
@@ -6833,7 +6833,7 @@
         <v>18.734949</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="53"/>
       <c r="B66" s="62" t="s">
         <v>146</v>
@@ -6851,10 +6851,10 @@
         <v>817.38953400000003</v>
       </c>
       <c r="G66" s="64">
-        <v>5.019876</v>
+        <v>5.0155060000000002</v>
       </c>
       <c r="H66" s="65">
-        <v>10.144739</v>
+        <v>10.15279</v>
       </c>
       <c r="I66" s="63">
         <v>2311717</v>
@@ -6869,10 +6869,10 @@
         <v>242.34190899999999</v>
       </c>
       <c r="M66" s="64">
-        <v>1.4893609999999999</v>
+        <v>1.5092080000000001</v>
       </c>
       <c r="N66" s="65">
-        <v>2.9816690000000001</v>
+        <v>3.0190730000000001</v>
       </c>
       <c r="O66" s="63">
         <v>47.165914000000001</v>
@@ -6914,7 +6914,7 @@
         <v>39.264738000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A67" s="53"/>
       <c r="B67" s="58" t="s">
         <v>147</v>
@@ -6932,10 +6932,10 @@
         <v>298.29300699999999</v>
       </c>
       <c r="G67" s="60">
-        <v>6.3579299999999996</v>
+        <v>6.3223779999999996</v>
       </c>
       <c r="H67" s="61">
-        <v>16.007673</v>
+        <v>15.892503</v>
       </c>
       <c r="I67" s="59">
         <v>285276</v>
@@ -6950,10 +6950,10 @@
         <v>99.814738000000006</v>
       </c>
       <c r="M67" s="60">
-        <v>2.2588789999999999</v>
+        <v>2.323369</v>
       </c>
       <c r="N67" s="61">
-        <v>6.368709</v>
+        <v>6.4273429999999996</v>
       </c>
       <c r="O67" s="59">
         <v>8.8625349999999994</v>
@@ -6995,7 +6995,7 @@
         <v>11.749057000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A68" s="53"/>
       <c r="B68" s="58" t="s">
         <v>148</v>
@@ -7013,10 +7013,10 @@
         <v>396.98513500000001</v>
       </c>
       <c r="G68" s="60">
-        <v>6.537407</v>
+        <v>6.2897109999999996</v>
       </c>
       <c r="H68" s="61">
-        <v>15.319495999999999</v>
+        <v>14.574522</v>
       </c>
       <c r="I68" s="59">
         <v>350267</v>
@@ -7031,10 +7031,10 @@
         <v>224.893564</v>
       </c>
       <c r="M68" s="60">
-        <v>3.7952149999999998</v>
+        <v>4.1936600000000004</v>
       </c>
       <c r="N68" s="61">
-        <v>7.8044929999999999</v>
+        <v>8.5402509999999996</v>
       </c>
       <c r="O68" s="59">
         <v>9.9415479999999992</v>
@@ -7076,7 +7076,7 @@
         <v>17.241109999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A69" s="53"/>
       <c r="B69" s="58" t="s">
         <v>149</v>
@@ -7157,7 +7157,7 @@
         <v>8.5976359999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A70" s="53"/>
       <c r="B70" s="58" t="s">
         <v>150</v>
@@ -7175,10 +7175,10 @@
         <v>64.835246999999995</v>
       </c>
       <c r="G70" s="60">
-        <v>2.609416</v>
+        <v>2.6094020000000002</v>
       </c>
       <c r="H70" s="61">
-        <v>6.0599429999999996</v>
+        <v>6.0590979999999997</v>
       </c>
       <c r="I70" s="59">
         <v>124209</v>
@@ -7193,10 +7193,10 @@
         <v>118.608357</v>
       </c>
       <c r="M70" s="60">
-        <v>4.8019369999999997</v>
+        <v>4.8048330000000004</v>
       </c>
       <c r="N70" s="61">
-        <v>11.401736</v>
+        <v>11.402274999999999</v>
       </c>
       <c r="O70" s="59">
         <v>9.7056349999999991</v>
@@ -7238,7 +7238,7 @@
         <v>10.891716000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A71" s="53"/>
       <c r="B71" s="58" t="s">
         <v>151</v>
@@ -7256,10 +7256,10 @@
         <v>159.94737900000001</v>
       </c>
       <c r="G71" s="60">
-        <v>3.7831440000000001</v>
+        <v>3.8492820000000001</v>
       </c>
       <c r="H71" s="61">
-        <v>7.6443430000000001</v>
+        <v>7.7195770000000001</v>
       </c>
       <c r="I71" s="59">
         <v>280512</v>
@@ -7274,10 +7274,10 @@
         <v>324.62125400000002</v>
       </c>
       <c r="M71" s="60">
-        <v>7.7929469999999998</v>
+        <v>7.7740309999999999</v>
       </c>
       <c r="N71" s="61">
-        <v>15.803118</v>
+        <v>15.644133</v>
       </c>
       <c r="O71" s="59">
         <v>7.788144</v>
@@ -7319,7 +7319,7 @@
         <v>16.450037999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A72" s="53"/>
       <c r="B72" s="58" t="s">
         <v>152</v>
@@ -7400,7 +7400,7 @@
         <v>7.7589860000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A73" s="53"/>
       <c r="B73" s="58" t="s">
         <v>153</v>
@@ -7418,10 +7418,10 @@
         <v>135.87470200000001</v>
       </c>
       <c r="G73" s="60">
-        <v>3.2782779999999998</v>
+        <v>3.265533</v>
       </c>
       <c r="H73" s="61">
-        <v>5.5026900000000003</v>
+        <v>5.4695780000000003</v>
       </c>
       <c r="I73" s="59">
         <v>192307</v>
@@ -7436,10 +7436,10 @@
         <v>140.337898</v>
       </c>
       <c r="M73" s="60">
-        <v>3.4612349999999998</v>
+        <v>3.5521449999999999</v>
       </c>
       <c r="N73" s="61">
-        <v>7.5655330000000003</v>
+        <v>7.6465860000000001</v>
       </c>
       <c r="O73" s="59">
         <v>7.0464029999999998</v>
@@ -7481,7 +7481,7 @@
         <v>12.075657</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A74" s="53"/>
       <c r="B74" s="58" t="s">
         <v>154</v>
@@ -7562,7 +7562,7 @@
         <v>16.195281000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="53"/>
       <c r="B75" s="58" t="s">
         <v>155</v>
@@ -7580,10 +7580,10 @@
         <v>72.167640000000006</v>
       </c>
       <c r="G75" s="67">
-        <v>1.972229</v>
+        <v>1.9722109999999999</v>
       </c>
       <c r="H75" s="68">
-        <v>4.9169919999999996</v>
+        <v>4.9169499999999999</v>
       </c>
       <c r="I75" s="66">
         <v>35568</v>
@@ -7598,10 +7598,10 @@
         <v>155.53532799999999</v>
       </c>
       <c r="M75" s="67">
-        <v>3.9713470000000002</v>
+        <v>3.9713539999999998</v>
       </c>
       <c r="N75" s="68">
-        <v>9.4490210000000001</v>
+        <v>9.4490379999999998</v>
       </c>
       <c r="O75" s="66">
         <v>3.7828919999999999</v>
@@ -7643,7 +7643,7 @@
         <v>9.6886779999999995</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A76" s="53"/>
       <c r="B76" s="69" t="s">
         <v>156</v>
@@ -7682,7 +7682,7 @@
         <v>2.9349889999999998</v>
       </c>
       <c r="N76" s="72">
-        <v>6.1687019999999997</v>
+        <v>6.1687029999999998</v>
       </c>
       <c r="O76" s="70">
         <v>13.634399999999999</v>
@@ -7724,7 +7724,7 @@
         <v>10.959179000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A77" s="53"/>
       <c r="B77" s="58" t="s">
         <v>157</v>
@@ -7742,10 +7742,10 @@
         <v>383.19729799999999</v>
       </c>
       <c r="G77" s="60">
-        <v>2.7012209999999999</v>
+        <v>2.7015150000000001</v>
       </c>
       <c r="H77" s="61">
-        <v>7.2928759999999997</v>
+        <v>7.2976869999999998</v>
       </c>
       <c r="I77" s="59">
         <v>24289</v>
@@ -7760,10 +7760,10 @@
         <v>83.952220999999994</v>
       </c>
       <c r="M77" s="60">
-        <v>0.58193700000000004</v>
+        <v>0.58216599999999996</v>
       </c>
       <c r="N77" s="61">
-        <v>1.6237839999999999</v>
+        <v>1.6254580000000001</v>
       </c>
       <c r="O77" s="59">
         <v>11.923358</v>
@@ -7805,7 +7805,7 @@
         <v>27.593574</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A78" s="53"/>
       <c r="B78" s="58" t="s">
         <v>158</v>
@@ -7823,10 +7823,10 @@
         <v>1458.3008420000001</v>
       </c>
       <c r="G78" s="60">
-        <v>3.49532</v>
+        <v>3.4954329999999998</v>
       </c>
       <c r="H78" s="61">
-        <v>5.3011309999999998</v>
+        <v>5.3012680000000003</v>
       </c>
       <c r="I78" s="59">
         <v>9423</v>
@@ -7841,10 +7841,10 @@
         <v>65.737378000000007</v>
       </c>
       <c r="M78" s="60">
-        <v>0.15687300000000001</v>
+        <v>0.156859</v>
       </c>
       <c r="N78" s="61">
-        <v>0.17408799999999999</v>
+        <v>0.174072</v>
       </c>
       <c r="O78" s="59">
         <v>31.742232000000001</v>
@@ -7886,7 +7886,7 @@
         <v>136.13735500000001</v>
       </c>
     </row>
-    <row r="79" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="53"/>
       <c r="B79" s="62" t="s">
         <v>159</v>
@@ -7904,10 +7904,10 @@
         <v>1047.118115</v>
       </c>
       <c r="G79" s="64">
-        <v>2.4423490000000001</v>
+        <v>2.4443950000000001</v>
       </c>
       <c r="H79" s="65">
-        <v>4.9845519999999999</v>
+        <v>4.9907579999999996</v>
       </c>
       <c r="I79" s="63">
         <v>18287</v>
@@ -7922,10 +7922,10 @@
         <v>31.992716000000001</v>
       </c>
       <c r="M79" s="64">
-        <v>7.6166999999999999E-2</v>
+        <v>7.6133000000000006E-2</v>
       </c>
       <c r="N79" s="65">
-        <v>0.166711</v>
+        <v>0.16664599999999999</v>
       </c>
       <c r="O79" s="63">
         <v>28.234013999999998</v>
@@ -7967,7 +7967,7 @@
         <v>101.668004</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A80" s="53"/>
       <c r="B80" s="69" t="s">
         <v>160</v>
@@ -7985,10 +7985,10 @@
         <v>375.01345600000002</v>
       </c>
       <c r="G80" s="71">
-        <v>4.3591620000000004</v>
+        <v>4.3597000000000001</v>
       </c>
       <c r="H80" s="72">
-        <v>12.655671999999999</v>
+        <v>12.657641999999999</v>
       </c>
       <c r="I80" s="70">
         <v>38642</v>
@@ -8003,10 +8003,10 @@
         <v>98.723326999999998</v>
       </c>
       <c r="M80" s="71">
-        <v>1.415459</v>
+        <v>1.413343</v>
       </c>
       <c r="N80" s="72">
-        <v>3.24851</v>
+        <v>3.2451479999999999</v>
       </c>
       <c r="O80" s="70">
         <v>9.0764999999999993</v>
@@ -8048,7 +8048,7 @@
         <v>12.013049000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
       <c r="B81" s="58" t="s">
         <v>161</v>
@@ -8066,10 +8066,10 @@
         <v>991.26752599999998</v>
       </c>
       <c r="G81" s="60">
-        <v>5.07843</v>
+        <v>5.067717</v>
       </c>
       <c r="H81" s="61">
-        <v>13.81481</v>
+        <v>13.947978000000001</v>
       </c>
       <c r="I81" s="59">
         <v>31441</v>
@@ -8084,10 +8084,10 @@
         <v>52.682581999999996</v>
       </c>
       <c r="M81" s="60">
-        <v>0.25065399999999999</v>
+        <v>0.24724699999999999</v>
       </c>
       <c r="N81" s="61">
-        <v>0.44060500000000002</v>
+        <v>0.43498500000000001</v>
       </c>
       <c r="O81" s="59">
         <v>11.082656999999999</v>
@@ -8129,7 +8129,7 @@
         <v>90.123690999999994</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A82" s="53"/>
       <c r="B82" s="58" t="s">
         <v>162</v>
@@ -8147,10 +8147,10 @@
         <v>249.80304899999999</v>
       </c>
       <c r="G82" s="60">
-        <v>5.2786179999999998</v>
+        <v>5.1846740000000002</v>
       </c>
       <c r="H82" s="61">
-        <v>11.646246</v>
+        <v>11.356698</v>
       </c>
       <c r="I82" s="59">
         <v>658292</v>
@@ -8165,10 +8165,10 @@
         <v>184.21442300000001</v>
       </c>
       <c r="M82" s="60">
-        <v>3.991924</v>
+        <v>4.2749940000000004</v>
       </c>
       <c r="N82" s="61">
-        <v>8.8516499999999994</v>
+        <v>9.3021049999999992</v>
       </c>
       <c r="O82" s="59">
         <v>8.4752650000000003</v>
@@ -8210,7 +8210,7 @@
         <v>14.218351999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="53"/>
       <c r="B83" s="62" t="s">
         <v>163</v>
@@ -8228,10 +8228,10 @@
         <v>928.00147100000004</v>
       </c>
       <c r="G83" s="64">
-        <v>5.0076679999999998</v>
+        <v>5.0076239999999999</v>
       </c>
       <c r="H83" s="65">
-        <v>9.6993519999999993</v>
+        <v>9.7009749999999997</v>
       </c>
       <c r="I83" s="63">
         <v>1583342</v>
@@ -8246,10 +8246,10 @@
         <v>273.08973099999997</v>
       </c>
       <c r="M83" s="64">
-        <v>1.479868</v>
+        <v>1.479241</v>
       </c>
       <c r="N83" s="65">
-        <v>2.9208780000000001</v>
+        <v>2.9197540000000002</v>
       </c>
       <c r="O83" s="63">
         <v>58.963574000000001</v>
@@ -8291,7 +8291,7 @@
         <v>40.752867999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A84" s="53"/>
       <c r="B84" s="69" t="s">
         <v>164</v>
@@ -8309,10 +8309,10 @@
         <v>38.112029</v>
       </c>
       <c r="G84" s="71">
-        <v>1.9103019999999999</v>
+        <v>1.910407</v>
       </c>
       <c r="H84" s="72">
-        <v>5.5864669999999998</v>
+        <v>5.5858299999999996</v>
       </c>
       <c r="I84" s="70">
         <v>325979</v>
@@ -8327,10 +8327,10 @@
         <v>121.545129</v>
       </c>
       <c r="M84" s="71">
-        <v>6.9521740000000003</v>
+        <v>6.9542669999999998</v>
       </c>
       <c r="N84" s="72">
-        <v>17.519552000000001</v>
+        <v>17.518986000000002</v>
       </c>
       <c r="O84" s="70">
         <v>7.5824170000000004</v>
@@ -8372,7 +8372,7 @@
         <v>10.355364</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A85" s="53"/>
       <c r="B85" s="73" t="s">
         <v>165</v>
@@ -8453,7 +8453,7 @@
         <v>11.240929</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A86" s="53"/>
       <c r="B86" s="58" t="s">
         <v>166</v>
@@ -8471,10 +8471,10 @@
         <v>367.52571699999999</v>
       </c>
       <c r="G86" s="60">
-        <v>5.9954700000000001</v>
+        <v>5.8027290000000002</v>
       </c>
       <c r="H86" s="61">
-        <v>13.644541</v>
+        <v>13.070997</v>
       </c>
       <c r="I86" s="59">
         <v>297562</v>
@@ -8489,10 +8489,10 @@
         <v>236.32983100000001</v>
       </c>
       <c r="M86" s="60">
-        <v>3.9583949999999999</v>
+        <v>4.3318209999999997</v>
       </c>
       <c r="N86" s="61">
-        <v>8.1095129999999997</v>
+        <v>8.7714800000000004</v>
       </c>
       <c r="O86" s="59">
         <v>8.9833239999999996</v>
@@ -8534,7 +8534,7 @@
         <v>16.518087999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A87" s="53"/>
       <c r="B87" s="58" t="s">
         <v>167</v>
@@ -8615,7 +8615,7 @@
         <v>22.084177</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A88" s="53"/>
       <c r="B88" s="58" t="s">
         <v>168</v>
@@ -8633,10 +8633,10 @@
         <v>629.64094599999999</v>
       </c>
       <c r="G88" s="60">
-        <v>5.0078459999999998</v>
+        <v>5.0078449999999997</v>
       </c>
       <c r="H88" s="61">
-        <v>11.218273</v>
+        <v>11.218268999999999</v>
       </c>
       <c r="I88" s="59">
         <v>5566</v>
@@ -8651,10 +8651,10 @@
         <v>67.768180999999998</v>
       </c>
       <c r="M88" s="60">
-        <v>0.52309700000000003</v>
+        <v>0.52309499999999998</v>
       </c>
       <c r="N88" s="61">
-        <v>0.81241600000000003</v>
+        <v>0.81241300000000005</v>
       </c>
       <c r="O88" s="59">
         <v>11.678758</v>
@@ -8696,7 +8696,7 @@
         <v>19.838698000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A89" s="53"/>
       <c r="B89" s="58" t="s">
         <v>169</v>
@@ -8714,10 +8714,10 @@
         <v>1232.1106689999999</v>
       </c>
       <c r="G89" s="60">
-        <v>7.7971360000000001</v>
+        <v>7.7916840000000001</v>
       </c>
       <c r="H89" s="61">
-        <v>15.276386</v>
+        <v>15.276524999999999</v>
       </c>
       <c r="I89" s="59">
         <v>499284</v>
@@ -8732,10 +8732,10 @@
         <v>308.00615900000003</v>
       </c>
       <c r="M89" s="60">
-        <v>1.9432640000000001</v>
+        <v>1.939792</v>
       </c>
       <c r="N89" s="61">
-        <v>3.7745129999999998</v>
+        <v>3.7680899999999999</v>
       </c>
       <c r="O89" s="59">
         <v>42.311549999999997</v>
@@ -8777,7 +8777,7 @@
         <v>22.486281999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="53"/>
       <c r="B90" s="62" t="s">
         <v>170</v>
@@ -8795,10 +8795,10 @@
         <v>1185.327133</v>
       </c>
       <c r="G90" s="64">
-        <v>2.664263</v>
+        <v>2.66717</v>
       </c>
       <c r="H90" s="65">
-        <v>5.5369400000000004</v>
+        <v>5.5722719999999999</v>
       </c>
       <c r="I90" s="63">
         <v>12922</v>
@@ -8813,10 +8813,10 @@
         <v>28.996715999999999</v>
       </c>
       <c r="M90" s="64">
-        <v>6.7102999999999996E-2</v>
+        <v>6.6990999999999995E-2</v>
       </c>
       <c r="N90" s="65">
-        <v>8.3793999999999993E-2</v>
+        <v>8.3710999999999994E-2</v>
       </c>
       <c r="O90" s="63">
         <v>26.200906</v>
@@ -8858,7 +8858,7 @@
         <v>127.929936</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A91" s="53"/>
       <c r="B91" s="69" t="s">
         <v>171</v>
@@ -8876,10 +8876,10 @@
         <v>43.183576000000002</v>
       </c>
       <c r="G91" s="71">
-        <v>1.8188120000000001</v>
+        <v>1.819202</v>
       </c>
       <c r="H91" s="72">
-        <v>4.9323940000000004</v>
+        <v>4.9321520000000003</v>
       </c>
       <c r="I91" s="70">
         <v>486831</v>
@@ -8894,10 +8894,10 @@
         <v>147.78965299999999</v>
       </c>
       <c r="M91" s="71">
-        <v>6.5022130000000002</v>
+        <v>6.5052770000000004</v>
       </c>
       <c r="N91" s="72">
-        <v>16.649011999999999</v>
+        <v>16.651022000000001</v>
       </c>
       <c r="O91" s="70">
         <v>6.7976919999999996</v>
@@ -8939,7 +8939,7 @@
         <v>10.096221</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A92" s="53"/>
       <c r="B92" s="58" t="s">
         <v>172</v>
@@ -8978,7 +8978,7 @@
         <v>8.3148400000000002</v>
       </c>
       <c r="N92" s="61">
-        <v>17.987168</v>
+        <v>17.987169000000002</v>
       </c>
       <c r="O92" s="59">
         <v>53.405042000000002</v>
@@ -9020,7 +9020,7 @@
         <v>20.790890000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A93" s="53"/>
       <c r="B93" s="58" t="s">
         <v>173</v>
@@ -9038,10 +9038,10 @@
         <v>404.35226899999998</v>
       </c>
       <c r="G93" s="60">
-        <v>4.7179820000000001</v>
+        <v>4.7179250000000001</v>
       </c>
       <c r="H93" s="61">
-        <v>8.0908049999999996</v>
+        <v>8.0905889999999996</v>
       </c>
       <c r="I93" s="59">
         <v>2391</v>
@@ -9056,10 +9056,10 @@
         <v>131.235049</v>
       </c>
       <c r="M93" s="60">
-        <v>1.6488849999999999</v>
+        <v>1.6488719999999999</v>
       </c>
       <c r="N93" s="61">
-        <v>3.7967209999999998</v>
+        <v>3.7966880000000001</v>
       </c>
       <c r="O93" s="59">
         <v>4.4262360000000003</v>
@@ -9101,7 +9101,7 @@
         <v>22.678788000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A94" s="53"/>
       <c r="B94" s="58" t="s">
         <v>174</v>
@@ -9119,10 +9119,10 @@
         <v>501.92756100000003</v>
       </c>
       <c r="G94" s="60">
-        <v>2.6651289999999999</v>
+        <v>2.6661510000000002</v>
       </c>
       <c r="H94" s="61">
-        <v>10.027723999999999</v>
+        <v>10.022695000000001</v>
       </c>
       <c r="I94" s="59">
         <v>28112</v>
@@ -9137,10 +9137,10 @@
         <v>258.55076400000002</v>
       </c>
       <c r="M94" s="60">
-        <v>1.3243290000000001</v>
+        <v>1.3225880000000001</v>
       </c>
       <c r="N94" s="61">
-        <v>2.4093450000000001</v>
+        <v>2.4069240000000001</v>
       </c>
       <c r="O94" s="59">
         <v>5.6566850000000004</v>
@@ -9182,7 +9182,7 @@
         <v>22.550727999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A95" s="53"/>
       <c r="B95" s="58" t="s">
         <v>175</v>
@@ -9200,10 +9200,10 @@
         <v>32.073042999999998</v>
       </c>
       <c r="G95" s="60">
-        <v>1.481239</v>
+        <v>1.5134860000000001</v>
       </c>
       <c r="H95" s="61">
-        <v>3.3004600000000002</v>
+        <v>3.3022170000000002</v>
       </c>
       <c r="I95" s="59">
         <v>249366</v>
@@ -9218,10 +9218,10 @@
         <v>153.74528100000001</v>
       </c>
       <c r="M95" s="60">
-        <v>7.3830710000000002</v>
+        <v>7.4495909999999999</v>
       </c>
       <c r="N95" s="61">
-        <v>18.364014000000001</v>
+        <v>18.180109999999999</v>
       </c>
       <c r="O95" s="59">
         <v>6.5613520000000003</v>
@@ -9263,7 +9263,7 @@
         <v>9.6416210000000007</v>
       </c>
     </row>
-    <row r="96" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="53"/>
       <c r="B96" s="62" t="s">
         <v>176</v>
@@ -9281,10 +9281,10 @@
         <v>537.22227999999996</v>
       </c>
       <c r="G96" s="64">
-        <v>6.4812760000000003</v>
+        <v>6.4817330000000002</v>
       </c>
       <c r="H96" s="65">
-        <v>12.372536999999999</v>
+        <v>12.34811</v>
       </c>
       <c r="I96" s="63">
         <v>71126</v>
@@ -9299,10 +9299,10 @@
         <v>190.39679699999999</v>
       </c>
       <c r="M96" s="64">
-        <v>2.3589150000000001</v>
+        <v>2.3831570000000002</v>
       </c>
       <c r="N96" s="65">
-        <v>5.1537249999999997</v>
+        <v>5.2066929999999996</v>
       </c>
       <c r="O96" s="63">
         <v>44.134644000000002</v>
@@ -9344,7 +9344,7 @@
         <v>48.968933999999997</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A97" s="53"/>
       <c r="B97" s="69" t="s">
         <v>177</v>
@@ -9362,10 +9362,10 @@
         <v>93.009482000000006</v>
       </c>
       <c r="G97" s="71">
-        <v>2.830756</v>
+        <v>2.9745710000000001</v>
       </c>
       <c r="H97" s="72">
-        <v>6.4934519999999996</v>
+        <v>6.6470349999999998</v>
       </c>
       <c r="I97" s="70">
         <v>657230</v>
@@ -9380,10 +9380,10 @@
         <v>207.1686</v>
       </c>
       <c r="M97" s="71">
-        <v>6.48644</v>
+        <v>6.6437109999999997</v>
       </c>
       <c r="N97" s="72">
-        <v>14.635258</v>
+        <v>14.665988</v>
       </c>
       <c r="O97" s="70">
         <v>6.9470650000000003</v>
@@ -9425,7 +9425,7 @@
         <v>11.430823</v>
       </c>
     </row>
-    <row r="98" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="53"/>
       <c r="B98" s="62" t="s">
         <v>178</v>
@@ -9443,10 +9443,10 @@
         <v>337.58839799999998</v>
       </c>
       <c r="G98" s="64">
-        <v>5.5015790000000004</v>
+        <v>5.4976770000000004</v>
       </c>
       <c r="H98" s="65">
-        <v>13.709847999999999</v>
+        <v>13.739038000000001</v>
       </c>
       <c r="I98" s="63">
         <v>385338</v>
@@ -9461,10 +9461,10 @@
         <v>253.27286799999999</v>
       </c>
       <c r="M98" s="64">
-        <v>4.3301299999999996</v>
+        <v>4.3044279999999997</v>
       </c>
       <c r="N98" s="65">
-        <v>9.1703069999999993</v>
+        <v>9.1160019999999999</v>
       </c>
       <c r="O98" s="63">
         <v>37.988233000000001</v>
@@ -9506,7 +9506,7 @@
         <v>24.795449000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A99" s="74"/>
       <c r="B99" s="75"/>
       <c r="C99" s="67"/>
@@ -9535,7 +9535,7 @@
       <c r="Z99" s="67"/>
       <c r="AA99" s="67"/>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>179</v>
       </c>
@@ -9565,7 +9565,7 @@
       <c r="Z100" s="76"/>
       <c r="AA100" s="76"/>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>180</v>
       </c>
@@ -9595,7 +9595,7 @@
       <c r="Z101" s="76"/>
       <c r="AA101" s="76"/>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>181</v>
       </c>
@@ -9625,7 +9625,7 @@
       <c r="Z102" s="76"/>
       <c r="AA102" s="76"/>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>182</v>
       </c>
@@ -9655,7 +9655,7 @@
       <c r="Z103" s="76"/>
       <c r="AA103" s="76"/>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>183</v>
       </c>
@@ -9685,7 +9685,7 @@
       <c r="Z104" s="76"/>
       <c r="AA104" s="76"/>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C105" s="76"/>
       <c r="D105" s="76"/>
       <c r="E105" s="76"/>
@@ -9712,7 +9712,7 @@
       <c r="Z105" s="76"/>
       <c r="AA105" s="76"/>
     </row>
-    <row r="106" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B106" s="77"/>
       <c r="C106" s="76"/>
       <c r="D106" s="76"/>
@@ -9740,7 +9740,7 @@
       <c r="Z106" s="76"/>
       <c r="AA106" s="76"/>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B107" s="78" t="s">
         <v>184</v>
       </c>
@@ -9770,7 +9770,7 @@
       <c r="Z107" s="76"/>
       <c r="AA107" s="76"/>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B108" s="2"/>
       <c r="C108" s="76"/>
       <c r="D108" s="76"/>
@@ -9798,7 +9798,7 @@
       <c r="Z108" s="76"/>
       <c r="AA108" s="76"/>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B109" s="81" t="s">
         <v>186</v>
       </c>
@@ -9828,7 +9828,7 @@
       <c r="Z109" s="76"/>
       <c r="AA109" s="76"/>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B110" s="81" t="s">
         <v>187</v>
       </c>
@@ -9858,7 +9858,7 @@
       <c r="Z110" s="76"/>
       <c r="AA110" s="76"/>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B111" s="81" t="s">
         <v>188</v>
       </c>
@@ -9888,7 +9888,7 @@
       <c r="Z111" s="76"/>
       <c r="AA111" s="76"/>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
         <v>185</v>
       </c>
@@ -9918,7 +9918,7 @@
       <c r="Z112" s="76"/>
       <c r="AA112" s="76"/>
     </row>
-    <row r="113" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B113" s="79"/>
       <c r="C113" s="76"/>
       <c r="D113" s="76"/>
@@ -9948,12 +9948,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{AB65CC1F-3C8D-4A65-B0D2-3761BC8FFABD}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{DA2A199F-4C75-4AA5-ACD1-286CCD43FBDB}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{0AA6ACF0-A766-418E-BF2A-03CD66640675}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{DE4FFFE9-A7D5-4551-8E66-C09121D15296}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{3A110632-7FEC-4ACB-B4F1-B2CA535C5F5D}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{C3A39EB2-3ECC-4BD8-BBB6-C3F0957D35B0}"/>
+    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{41365D90-4B6E-487E-8E79-3BCFDA496F98}"/>
+    <hyperlink ref="B109" r:id="rId2" xr:uid="{4F06BEBE-0688-4D72-BCD9-1F3653D27049}"/>
+    <hyperlink ref="B110" r:id="rId3" xr:uid="{9A4E2496-28A9-4599-B22F-4D430CD3A39B}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{6ED4E1F8-C2B9-44C3-B150-26332E8F7DF3}"/>
+    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{8C932F92-A1A0-4989-A83A-475D5600E8CE}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{9BE847E0-0102-413D-A6FC-F811B0E79323}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/DDAf_2025_Tableau_annexe_Tab16.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab16.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43ADD7B3-641B-4EAF-B1FB-7D6D6F17CE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6D3E808-7BCA-4AD5-AEBE-8977C13CD7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{E31CD75E-CB40-4306-A916-AB2A6303F4F9}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{C967C282-8F18-40C9-85AC-0C1C50B88F71}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab16" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab16'!$A$2:$E$98</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab16'!$A$1:$E$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab16'!$A$2:$C$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab16'!$A$1:$G$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,96 +37,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="189">
-  <si>
-    <t>Table 16: Environmental causes of premature deaths</t>
-  </si>
-  <si>
-    <t>CntryCode</t>
-  </si>
-  <si>
-    <t>Country (Resource-rich countries are shaded)</t>
-  </si>
-  <si>
-    <t>Ambient particulate matter, premature deaths, 2019</t>
-  </si>
-  <si>
-    <t>Ambient particulate matter, premature deaths (per million population), 2019</t>
-  </si>
-  <si>
-    <t>Ambient particulate matter, premature deaths (% of total), 2019</t>
-  </si>
-  <si>
-    <t>Ambient particulate matter, welfare cost of premature deaths (USD per capita), 2019</t>
-  </si>
-  <si>
-    <t>Ambient particulate matter, welfare cost of premature deaths (% of GDP), 2019</t>
-  </si>
-  <si>
-    <t>Ambient particulate matter, welfare cost of premature deaths (% of total), 2019</t>
-  </si>
-  <si>
-    <t>HH air pollution (solid fuels), premature deaths, 2019</t>
-  </si>
-  <si>
-    <t>HH air pollution (solid fuels), premature deaths (per million population), 2019</t>
-  </si>
-  <si>
-    <t>HH air pollution (solid fuels), premature deaths (% of total), 2019</t>
-  </si>
-  <si>
-    <t>HH air pollution (solid fuels), welfare cost of premature deaths (USD per capita), 2019</t>
-  </si>
-  <si>
-    <t>HH air pollution (solid fuels), welfare cost of premature deaths (% of GDP), 2019</t>
-  </si>
-  <si>
-    <t>HH air pollution (solid fuels), welfare cost of premature deaths (% of total), 2019</t>
-  </si>
-  <si>
-    <t>Ambient Ozone, premature deaths (per million population), 2019</t>
-  </si>
-  <si>
-    <t>High temperature, premature deaths (per million population), 2019</t>
-  </si>
-  <si>
-    <t>Low temperature, premature deaths (per million population), 2019</t>
-  </si>
-  <si>
-    <t>Lead, premature deaths (per million population), 2019</t>
-  </si>
-  <si>
-    <t>Residential radon, premature deaths (per million population), 2019</t>
-  </si>
-  <si>
-    <t>Unsafe water source, premature deaths (per million population), 2019</t>
-  </si>
-  <si>
-    <t>Unsafe sanitation, premature deaths (per million population), 2019</t>
-  </si>
-  <si>
-    <t>Handwashing facilities, premature deaths (per million population), 2019</t>
-  </si>
-  <si>
-    <t>Occupational air pollution, premature deaths (per million population), 2019</t>
-  </si>
-  <si>
-    <t>Occupational carcinogens, premature deaths (per million population), 2019</t>
-  </si>
-  <si>
-    <t>Second-hand smoke, premature deaths (per million population), 2019</t>
-  </si>
-  <si>
-    <t>Diet high in red meat, premature deaths (per million population), 2019</t>
-  </si>
-  <si>
-    <t>Diet high in processed meat, premature deaths (per million population), 2019</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="191">
+  <si>
+    <t>Tableau 16 : Causes environnementales des décès prématurés</t>
+  </si>
+  <si>
+    <t>ISO3 Code</t>
+  </si>
+  <si>
+    <t>Pays (pays riches en ressources ombrés)</t>
+  </si>
+  <si>
+    <t>Particules dans l'air ambiant, décés prématurés, 2019</t>
+  </si>
+  <si>
+    <t>Particules dans l'air ambiant, décés prématurés (par million d'habitants), 2019</t>
+  </si>
+  <si>
+    <t>Particules dans l'air ambiant, décés prématurés (% du total), 2019</t>
+  </si>
+  <si>
+    <t>Particules dans l'air ambiant, coûts en bien-être des décés prématurés (dollars US par habitant), 2019</t>
+  </si>
+  <si>
+    <t>Particules dans l'air ambiant, coûts en bien-être des décés prématurés (% of GDP), 2019</t>
+  </si>
+  <si>
+    <t>Particules dans l'air ambiant, coûts en bien-être des décés prématurés (% du total), 2019</t>
+  </si>
+  <si>
+    <t>Pollution de l'air des ménages (combustibles solides), décés prématurés, 2019</t>
+  </si>
+  <si>
+    <t>Pollution de l'air des ménages (combustibles solides), décés prématurés (par million d'habitants), 2019</t>
+  </si>
+  <si>
+    <t>Pollution de l'air des ménages (combustibles solides), décés prématurés (% du total), 2019</t>
+  </si>
+  <si>
+    <t>Pollution de l'air des ménages (combustibles solides), coûts en bien-être des décés prématurés (dollars US par habitant), 2019</t>
+  </si>
+  <si>
+    <t>Pollution de l'air des ménages (combustibles solides), coûts en bien-être des décés prématurés (% of GDP), 2019</t>
+  </si>
+  <si>
+    <t>Pollution de l'air des ménages (combustibles solides), coûts en bien-être des décés prématurés (% du total), 2019</t>
+  </si>
+  <si>
+    <t>Ozone troposphérique, décés prématurés (par million d'habitants), 2019</t>
+  </si>
+  <si>
+    <t>Température élevée, décés prématurés (par million d'habitants), 2019</t>
+  </si>
+  <si>
+    <t>Basse température, décés prématurés (par million d'habitants), 2019</t>
+  </si>
+  <si>
+    <t>Plomb, décés prématurés (par million d'habitants), 2019</t>
+  </si>
+  <si>
+    <t>Radon domestique, décés prématurés (par million d'habitants), 2019</t>
+  </si>
+  <si>
+    <t>Source d'eau insalubre, décés prématurés (par million d'habitants), 2019</t>
+  </si>
+  <si>
+    <t>Assainissement dangereux, décés prématurés (par million d'habitants), 2019</t>
+  </si>
+  <si>
+    <t>Installations de lavage des mains, décés prématurés (par million d'habitants), 2019</t>
+  </si>
+  <si>
+    <t>Pollution de l'air présente au travail, décés prématurés (par million d'habitants), 2019</t>
+  </si>
+  <si>
+    <t>Cancérigens présents au travail, décés prématurés (par million d'habitants), 2019</t>
+  </si>
+  <si>
+    <t>Tabagisme passif, décés prématurés (par million d'habitants), 2019</t>
+  </si>
+  <si>
+    <t>Alimentation riche en viande rouge, décés prématurés (par million d'habitants), 2019</t>
+  </si>
+  <si>
+    <t>Alimentation riche en viande transformée&lt;, décés prématurés (par million d'habitants), 2019</t>
   </si>
   <si>
     <t>AGO</t>
   </si>
   <si>
-    <t>Angola*</t>
+    <t>Angola</t>
   </si>
   <si>
     <t>BWA</t>
@@ -162,19 +162,19 @@
     <t>NAM</t>
   </si>
   <si>
-    <t>Namibia</t>
+    <t>Namibie</t>
   </si>
   <si>
     <t>ZAF</t>
   </si>
   <si>
-    <t>South Africa</t>
+    <t>Afrique du Sud</t>
   </si>
   <si>
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambia</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -183,7 +183,10 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Southern Africa</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Afrique Australe</t>
   </si>
   <si>
     <t>BDI</t>
@@ -195,58 +198,58 @@
     <t>CMR</t>
   </si>
   <si>
-    <t>Cameroon</t>
+    <t>Cameroun</t>
   </si>
   <si>
     <t>CAF</t>
   </si>
   <si>
-    <t>Central African Republic</t>
+    <t>République centrafricaine</t>
   </si>
   <si>
     <t>TCD</t>
   </si>
   <si>
-    <t>Chad*</t>
+    <t>Tchad</t>
   </si>
   <si>
     <t>COG</t>
   </si>
   <si>
-    <t>Congo Republic*</t>
+    <t>République du Congo</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
   </si>
   <si>
-    <t>Equatorial Guinea*</t>
+    <t>Guinée équatoriale</t>
   </si>
   <si>
     <t>GAB</t>
   </si>
   <si>
-    <t>Gabon*</t>
+    <t>Gabon</t>
   </si>
   <si>
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
-  </si>
-  <si>
-    <t>Central Africa</t>
+    <t>Sao Tomé-et-Principe</t>
+  </si>
+  <si>
+    <t>Afrique Centrale</t>
   </si>
   <si>
     <t>COM</t>
   </si>
   <si>
-    <t>Comoros</t>
+    <t>Comores</t>
   </si>
   <si>
     <t>DJI</t>
@@ -258,13 +261,13 @@
     <t>ERI</t>
   </si>
   <si>
-    <t>Eritrea</t>
+    <t>Érythrée</t>
   </si>
   <si>
     <t>ETH</t>
   </si>
   <si>
-    <t>Ethiopia</t>
+    <t>Éthiopie</t>
   </si>
   <si>
     <t>KEN</t>
@@ -282,7 +285,7 @@
     <t>MUS</t>
   </si>
   <si>
-    <t>Mauritius</t>
+    <t>Maurice</t>
   </si>
   <si>
     <t>RWA</t>
@@ -300,7 +303,7 @@
     <t>SOM</t>
   </si>
   <si>
-    <t>Somalia</t>
+    <t>Somalie</t>
   </si>
   <si>
     <t>..</t>
@@ -309,73 +312,73 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
   </si>
   <si>
-    <t>Sudan</t>
+    <t>Soudan</t>
   </si>
   <si>
     <t>TZA</t>
   </si>
   <si>
-    <t>Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
   </si>
   <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>East Africa</t>
+    <t>Ouganda</t>
+  </si>
+  <si>
+    <t>Afrique de l'Est</t>
   </si>
   <si>
     <t>DZA</t>
   </si>
   <si>
-    <t>Algeria*</t>
+    <t>Algérie</t>
   </si>
   <si>
     <t>EGY</t>
   </si>
   <si>
-    <t>Egypt</t>
+    <t>Égypte</t>
   </si>
   <si>
     <t>LBY</t>
   </si>
   <si>
-    <t>Libya*</t>
+    <t>Libye</t>
   </si>
   <si>
     <t>MRT</t>
   </si>
   <si>
-    <t>Mauritania*</t>
+    <t>Mauritanie</t>
   </si>
   <si>
     <t>MAR</t>
   </si>
   <si>
-    <t>Morocco</t>
+    <t>Maroc</t>
   </si>
   <si>
     <t>TUN</t>
   </si>
   <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>North Africa</t>
+    <t>Tunisie</t>
+  </si>
+  <si>
+    <t>Afrique du Nord</t>
   </si>
   <si>
     <t>BEN</t>
   </si>
   <si>
-    <t>Benin</t>
+    <t>Bénin</t>
   </si>
   <si>
     <t>BFA</t>
@@ -387,7 +390,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde*</t>
+    <t>Cabo Verde</t>
   </si>
   <si>
     <t>CIV</t>
@@ -399,7 +402,7 @@
     <t>GMB</t>
   </si>
   <si>
-    <t>Gambia</t>
+    <t>Gambie</t>
   </si>
   <si>
     <t>GHA</t>
@@ -411,13 +414,13 @@
     <t>GIN</t>
   </si>
   <si>
-    <t>Guinea</t>
+    <t>Guinée</t>
   </si>
   <si>
     <t>GNB</t>
   </si>
   <si>
-    <t>Guinea-Bissau</t>
+    <t>Guinée-Bissau</t>
   </si>
   <si>
     <t>LBR</t>
@@ -447,7 +450,7 @@
     <t>SEN</t>
   </si>
   <si>
-    <t>Senegal</t>
+    <t>Sénégal</t>
   </si>
   <si>
     <t>SLE</t>
@@ -462,22 +465,22 @@
     <t>Togo</t>
   </si>
   <si>
-    <t>West Africa</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>World outside Africa</t>
-  </si>
-  <si>
-    <t>Latin America and Caribbean</t>
-  </si>
-  <si>
-    <t>Asia (no high inc.)</t>
-  </si>
-  <si>
-    <t>World</t>
+    <t>Afrique de l'Ouest</t>
+  </si>
+  <si>
+    <t>Afrique</t>
+  </si>
+  <si>
+    <t>Reste du monde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amérique latine et Caraîbes </t>
+  </si>
+  <si>
+    <t>Asie (pays à revenu élevé exclus)</t>
+  </si>
+  <si>
+    <t>Monde</t>
   </si>
   <si>
     <t>COMESA</t>
@@ -486,19 +489,19 @@
     <t>CEN-SAD</t>
   </si>
   <si>
-    <t>EAC</t>
-  </si>
-  <si>
-    <t>ECCAS</t>
-  </si>
-  <si>
-    <t>ECOWAS</t>
+    <t>CAE</t>
+  </si>
+  <si>
+    <t>CEEAC</t>
+  </si>
+  <si>
+    <t>CEDEAO</t>
   </si>
   <si>
     <t>IGAD</t>
   </si>
   <si>
-    <t>SADC</t>
+    <t>CDAA</t>
   </si>
   <si>
     <t>UMA</t>
@@ -516,102 +519,107 @@
     <t>EU27</t>
   </si>
   <si>
-    <t>OECD</t>
-  </si>
-  <si>
-    <t>Africa, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Low income countries</t>
-  </si>
-  <si>
-    <t>ROW, Low income countries</t>
-  </si>
-  <si>
-    <t>Africa, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>Africa, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>High income countries</t>
-  </si>
-  <si>
-    <t>Africa, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>ROW, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>Africa, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>ROW, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>Africa, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>ROW, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>Africa, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>ROW, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
-  </si>
-  <si>
-    <t>Note: *Resource-rich countries; ".." indicates data not available or not applicable.</t>
-  </si>
-  <si>
-    <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
-  </si>
-  <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
-  </si>
-  <si>
-    <t>Source: Author's calculations based on OECD Environment Statistics (database, updated December 2020) and population data from World Population Prospects 2024 - United Nations Department of Economic and Social Affairs Population Division.</t>
-  </si>
-  <si>
-    <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
-  </si>
-  <si>
-    <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
-  </si>
-  <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
-  </si>
-  <si>
-    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
+    <t>OCDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afrique, pays riches en ressources </t>
+  </si>
+  <si>
+    <t>RDM, pays riches en ressources</t>
+  </si>
+  <si>
+    <t>Afrique (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>RDM (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>Afrique, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>RDM, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>Pays à revenu élevé</t>
+  </si>
+  <si>
+    <t>Afrique, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>RDM, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>Afrique, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
+  </si>
+  <si>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+  </si>
+  <si>
+    <t>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</t>
+  </si>
+  <si>
+    <t>RDM = "Reste du monde" ; ALC = "Pays d'Amérique latine et des Caraïbes"</t>
+  </si>
+  <si>
+    <t>CEN-SAD = « Communauté des États sahélo-sahariens » ; COMESA = « Marché commun de l’Afrique orientale et australe » ; EAC = « Communauté d’Afrique de l’Est » ; ECCAS = « Communauté économique des États de l’Afrique centrale » ; ECOWAS = « Communauté économique des États de l’Afrique de l’Ouest » ; IGAD = « Autorité intergouvernementale pour le développement » ; SADC = « Communauté de développement de l’Afrique australe » ; UMA = « Union du Maghreb arabe » ; PALOP = « Pays africains de langue officielle portugaise » ; ASEAN = « Association des nations de l’Asie du Sud-Est » ; MERCOSUR = « Marché commun du Sud ».
+EU27 = « Union européenne (27 membres) ». OECD = « Organisation de coopération et de développement économiques ».</t>
+  </si>
+  <si>
+    <t>Source : Calculs de l’auteur basés sur les statistiques environnementales de l’OCDE (base de données, mise à jour en décembre 2020) et sur les données de population des Perspectives de la population mondiale 2024 – Division de la population du Département des affaires économiques et sociales des Nations Unies.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des indicateurs, leurs descriptions et détails pour plus d’informations sur les indicateurs présentés dans ce tableau.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des pays et des regroupements de pays utilisés pour agréger les indicateurs et voir quels pays appartiennent à chaque regroupement.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour télécharger toutes les données de l’Annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques depuis 2000 (dans un format de fichier compressé).</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour visiter le site web où vous trouverez le rapport sur la dynamique du développement en Afrique, ainsi que des liens pour explorer ces données plus en détail et consulter les valeurs historiques de ces indicateurs.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste complète des sources utilisées dans l'annexe statistique.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -750,17 +758,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
       <u/>
       <sz val="11"/>
-      <color rgb="FFA54917"/>
+      <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
       <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
@@ -981,7 +986,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1209,8 +1214,10 @@
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1493,20 +1500,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62596C9C-5F9D-4886-B1FF-AE85590A7652}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02446CB9-B548-43C6-A1F4-FAC9B4E0879B}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA113"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="14.1796875" style="80" customWidth="1"/>
-    <col min="16" max="27" width="11.453125" style="80" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" style="82" customWidth="1"/>
+    <col min="4" max="15" width="14.1796875" customWidth="1"/>
+    <col min="16" max="27" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1539,7 +1547,7 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
     </row>
-    <row r="2" spans="1:27" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" ht="74" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2453,9 +2461,11 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="26"/>
+      <c r="A13" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="B13" s="27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" s="28">
         <v>42004</v>
@@ -2535,10 +2545,10 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="21">
         <v>977</v>
@@ -2618,10 +2628,10 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="21">
         <v>10250</v>
@@ -2701,10 +2711,10 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" s="21">
         <v>931</v>
@@ -2784,10 +2794,10 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" s="32">
         <v>2614</v>
@@ -2867,10 +2877,10 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" s="32">
         <v>1803</v>
@@ -2950,10 +2960,10 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" s="15">
         <v>11060</v>
@@ -3033,10 +3043,10 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C20" s="32">
         <v>397</v>
@@ -3116,10 +3126,10 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" s="32">
         <v>821</v>
@@ -3199,10 +3209,10 @@
     </row>
     <row r="22" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22" s="36">
         <v>52</v>
@@ -3281,9 +3291,11 @@
       </c>
     </row>
     <row r="23" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="26"/>
+      <c r="A23" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="B23" s="27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C23" s="28">
         <v>28905</v>
@@ -3363,10 +3375,10 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" s="40">
         <v>93</v>
@@ -3446,10 +3458,10 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25" s="21">
         <v>453</v>
@@ -3529,10 +3541,10 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C26" s="21">
         <v>1380</v>
@@ -3612,10 +3624,10 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C27" s="21">
         <v>8957</v>
@@ -3695,10 +3707,10 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C28" s="21">
         <v>5490</v>
@@ -3778,10 +3790,10 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C29" s="21">
         <v>2246</v>
@@ -3861,10 +3873,10 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C30" s="21">
         <v>606</v>
@@ -3944,10 +3956,10 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C31" s="21">
         <v>1758</v>
@@ -4027,10 +4039,10 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C32" s="21">
         <v>35</v>
@@ -4110,10 +4122,10 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C33" s="21">
         <v>770</v>
@@ -4125,13 +4137,13 @@
         <v>0.77</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I33" s="21">
         <v>27553</v>
@@ -4143,13 +4155,13 @@
         <v>27.57</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N33" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O33" s="21">
         <v>5.0684240000000003</v>
@@ -4193,10 +4205,10 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C34" s="32">
         <v>1390</v>
@@ -4208,13 +4220,13 @@
         <v>3.47</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I34" s="32">
         <v>7678</v>
@@ -4226,13 +4238,13 @@
         <v>19.18</v>
       </c>
       <c r="L34" s="33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M34" s="33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N34" s="34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O34" s="32">
         <v>4.8814729999999997</v>
@@ -4276,10 +4288,10 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C35" s="21">
         <v>16634</v>
@@ -4359,10 +4371,10 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C36" s="21">
         <v>6246</v>
@@ -4442,10 +4454,10 @@
     </row>
     <row r="37" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C37" s="23">
         <v>4586</v>
@@ -4524,9 +4536,11 @@
       </c>
     </row>
     <row r="38" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="26"/>
+      <c r="A38" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="B38" s="27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C38" s="28">
         <v>50644</v>
@@ -4606,10 +4620,10 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C39" s="44">
         <v>21613</v>
@@ -4689,10 +4703,10 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C40" s="21">
         <v>90559</v>
@@ -4772,10 +4786,10 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C41" s="32">
         <v>3368</v>
@@ -4855,10 +4869,10 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C42" s="32">
         <v>1411</v>
@@ -4938,10 +4952,10 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C43" s="21">
         <v>27063</v>
@@ -5021,10 +5035,10 @@
     </row>
     <row r="44" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C44" s="36">
         <v>7337</v>
@@ -5103,9 +5117,11 @@
       </c>
     </row>
     <row r="45" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="26"/>
+      <c r="A45" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="B45" s="27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C45" s="28">
         <v>151351</v>
@@ -5185,10 +5201,10 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C46" s="40">
         <v>2304</v>
@@ -5268,10 +5284,10 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C47" s="21">
         <v>3384</v>
@@ -5351,10 +5367,10 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C48" s="32">
         <v>319</v>
@@ -5434,10 +5450,10 @@
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C49" s="21">
         <v>6732</v>
@@ -5517,10 +5533,10 @@
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C50" s="21">
         <v>487</v>
@@ -5600,10 +5616,10 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C51" s="15">
         <v>12544</v>
@@ -5683,10 +5699,10 @@
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C52" s="21">
         <v>2455</v>
@@ -5766,10 +5782,10 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C53" s="21">
         <v>355</v>
@@ -5849,10 +5865,10 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C54" s="21">
         <v>656</v>
@@ -5932,10 +5948,10 @@
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C55" s="21">
         <v>3246</v>
@@ -6015,10 +6031,10 @@
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C56" s="21">
         <v>2971</v>
@@ -6098,10 +6114,10 @@
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C57" s="21">
         <v>68533</v>
@@ -6181,10 +6197,10 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C58" s="21">
         <v>3369</v>
@@ -6264,10 +6280,10 @@
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C59" s="21">
         <v>1542</v>
@@ -6347,10 +6363,10 @@
     </row>
     <row r="60" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C60" s="23">
         <v>1619</v>
@@ -6431,7 +6447,7 @@
     <row r="61" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="26"/>
       <c r="B61" s="27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C61" s="28">
         <v>110516</v>
@@ -6512,7 +6528,7 @@
     <row r="62" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="48"/>
       <c r="B62" s="49" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C62" s="50">
         <v>383420</v>
@@ -6593,7 +6609,7 @@
     <row r="63" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="48"/>
       <c r="B63" s="49" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C63" s="50">
         <v>3742201</v>
@@ -6674,7 +6690,7 @@
     <row r="64" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A64" s="53"/>
       <c r="B64" s="54" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C64" s="55">
         <v>167383</v>
@@ -6755,7 +6771,7 @@
     <row r="65" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A65" s="53"/>
       <c r="B65" s="58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C65" s="59">
         <v>3030466</v>
@@ -6836,7 +6852,7 @@
     <row r="66" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="53"/>
       <c r="B66" s="62" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C66" s="63">
         <v>4125621</v>
@@ -6917,7 +6933,7 @@
     <row r="67" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A67" s="53"/>
       <c r="B67" s="58" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C67" s="59">
         <v>163521</v>
@@ -6998,7 +7014,7 @@
     <row r="68" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A68" s="53"/>
       <c r="B68" s="58" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C68" s="59">
         <v>262154</v>
@@ -7079,7 +7095,7 @@
     <row r="69" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A69" s="53"/>
       <c r="B69" s="58" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C69" s="59">
         <v>31507</v>
@@ -7160,7 +7176,7 @@
     <row r="70" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A70" s="53"/>
       <c r="B70" s="58" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C70" s="59">
         <v>36226</v>
@@ -7241,7 +7257,7 @@
     <row r="71" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A71" s="53"/>
       <c r="B71" s="58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C71" s="59">
         <v>110516</v>
@@ -7322,7 +7338,7 @@
     <row r="72" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A72" s="53"/>
       <c r="B72" s="58" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C72" s="59">
         <v>38280</v>
@@ -7403,7 +7419,7 @@
     <row r="73" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A73" s="53"/>
       <c r="B73" s="58" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C73" s="59">
         <v>62290</v>
@@ -7484,7 +7500,7 @@
     <row r="74" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A74" s="53"/>
       <c r="B74" s="58" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C74" s="59">
         <v>60792</v>
@@ -7565,7 +7581,7 @@
     <row r="75" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="53"/>
       <c r="B75" s="58" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C75" s="66">
         <v>8168</v>
@@ -7646,7 +7662,7 @@
     <row r="76" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A76" s="53"/>
       <c r="B76" s="69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C76" s="70">
         <v>249362</v>
@@ -7727,7 +7743,7 @@
     <row r="77" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A77" s="53"/>
       <c r="B77" s="58" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C77" s="59">
         <v>107516</v>
@@ -7808,7 +7824,7 @@
     <row r="78" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A78" s="53"/>
       <c r="B78" s="58" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C78" s="59">
         <v>170116</v>
@@ -7889,7 +7905,7 @@
     <row r="79" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="53"/>
       <c r="B79" s="62" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C79" s="63">
         <v>374397</v>
@@ -7970,7 +7986,7 @@
     <row r="80" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A80" s="53"/>
       <c r="B80" s="69" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C80" s="70">
         <v>39299</v>
@@ -8051,7 +8067,7 @@
     <row r="81" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
       <c r="B81" s="58" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C81" s="59">
         <v>247315</v>
@@ -8132,7 +8148,7 @@
     <row r="82" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A82" s="53"/>
       <c r="B82" s="58" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C82" s="59">
         <v>344121</v>
@@ -8213,7 +8229,7 @@
     <row r="83" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="53"/>
       <c r="B83" s="62" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C83" s="63">
         <v>3494886</v>
@@ -8294,7 +8310,7 @@
     <row r="84" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A84" s="53"/>
       <c r="B84" s="69" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C84" s="70">
         <v>61797</v>
@@ -8375,7 +8391,7 @@
     <row r="85" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A85" s="53"/>
       <c r="B85" s="73" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C85" s="59">
         <v>52025</v>
@@ -8456,7 +8472,7 @@
     <row r="86" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A86" s="53"/>
       <c r="B86" s="58" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C86" s="59">
         <v>259785</v>
@@ -8537,7 +8553,7 @@
     <row r="87" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A87" s="53"/>
       <c r="B87" s="58" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C87" s="59">
         <v>1342231</v>
@@ -8618,7 +8634,7 @@
     <row r="88" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A88" s="53"/>
       <c r="B88" s="58" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C88" s="59">
         <v>52846</v>
@@ -8699,7 +8715,7 @@
     <row r="89" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A89" s="53"/>
       <c r="B89" s="58" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C89" s="59">
         <v>1921482</v>
@@ -8780,7 +8796,7 @@
     <row r="90" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="53"/>
       <c r="B90" s="62" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C90" s="63">
         <v>414114</v>
@@ -8861,7 +8877,7 @@
     <row r="91" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A91" s="53"/>
       <c r="B91" s="69" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C91" s="70">
         <v>96436</v>
@@ -8942,7 +8958,7 @@
     <row r="92" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A92" s="53"/>
       <c r="B92" s="58" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C92" s="59">
         <v>143090</v>
@@ -9023,7 +9039,7 @@
     <row r="93" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A93" s="53"/>
       <c r="B93" s="58" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C93" s="59">
         <v>1460</v>
@@ -9104,7 +9120,7 @@
     <row r="94" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A94" s="53"/>
       <c r="B94" s="58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C94" s="59">
         <v>17994</v>
@@ -9185,7 +9201,7 @@
     <row r="95" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A95" s="53"/>
       <c r="B95" s="58" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C95" s="59">
         <v>39807</v>
@@ -9266,7 +9282,7 @@
     <row r="96" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="53"/>
       <c r="B96" s="62" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C96" s="63">
         <v>99055</v>
@@ -9347,7 +9363,7 @@
     <row r="97" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A97" s="53"/>
       <c r="B97" s="69" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C97" s="70">
         <v>190269</v>
@@ -9428,7 +9444,7 @@
     <row r="98" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="53"/>
       <c r="B98" s="62" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C98" s="63">
         <v>368253</v>
@@ -9537,7 +9553,7 @@
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C100" s="76"/>
       <c r="D100" s="76"/>
@@ -9567,7 +9583,7 @@
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C101" s="76"/>
       <c r="D101" s="76"/>
@@ -9597,7 +9613,7 @@
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C102" s="76"/>
       <c r="D102" s="76"/>
@@ -9627,7 +9643,7 @@
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C103" s="76"/>
       <c r="D103" s="76"/>
@@ -9657,7 +9673,7 @@
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C104" s="76"/>
       <c r="D104" s="76"/>
@@ -9686,6 +9702,9 @@
       <c r="AA104" s="76"/>
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="C105" s="76"/>
       <c r="D105" s="76"/>
       <c r="E105" s="76"/>
@@ -9713,6 +9732,9 @@
       <c r="AA105" s="76"/>
     </row>
     <row r="106" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="B106" s="77"/>
       <c r="C106" s="76"/>
       <c r="D106" s="76"/>
@@ -9740,10 +9762,8 @@
       <c r="Z106" s="76"/>
       <c r="AA106" s="76"/>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B107" s="78" t="s">
-        <v>184</v>
-      </c>
+    <row r="107" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="77"/>
       <c r="C107" s="76"/>
       <c r="D107" s="76"/>
       <c r="E107" s="76"/>
@@ -9771,7 +9791,9 @@
       <c r="AA107" s="76"/>
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
+      <c r="B108" s="83" t="s">
+        <v>189</v>
+      </c>
       <c r="C108" s="76"/>
       <c r="D108" s="76"/>
       <c r="E108" s="76"/>
@@ -9799,9 +9821,7 @@
       <c r="AA108" s="76"/>
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B109" s="81" t="s">
-        <v>186</v>
-      </c>
+      <c r="B109" s="2"/>
       <c r="C109" s="76"/>
       <c r="D109" s="76"/>
       <c r="E109" s="76"/>
@@ -9829,8 +9849,8 @@
       <c r="AA109" s="76"/>
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B110" s="81" t="s">
-        <v>187</v>
+      <c r="B110" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="C110" s="76"/>
       <c r="D110" s="76"/>
@@ -9859,8 +9879,8 @@
       <c r="AA110" s="76"/>
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B111" s="81" t="s">
-        <v>188</v>
+      <c r="B111" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="C111" s="76"/>
       <c r="D111" s="76"/>
@@ -9889,8 +9909,8 @@
       <c r="AA111" s="76"/>
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>185</v>
+      <c r="B112" s="83" t="s">
+        <v>190</v>
       </c>
       <c r="C112" s="76"/>
       <c r="D112" s="76"/>
@@ -9919,7 +9939,9 @@
       <c r="AA112" s="76"/>
     </row>
     <row r="113" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B113" s="79"/>
+      <c r="B113" s="83" t="s">
+        <v>188</v>
+      </c>
       <c r="C113" s="76"/>
       <c r="D113" s="76"/>
       <c r="E113" s="76"/>
@@ -9946,17 +9968,83 @@
       <c r="Z113" s="76"/>
       <c r="AA113" s="76"/>
     </row>
+    <row r="114" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B114" s="78"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="76"/>
+      <c r="E114" s="76"/>
+      <c r="F114" s="76"/>
+      <c r="G114" s="76"/>
+      <c r="H114" s="76"/>
+      <c r="I114" s="76"/>
+      <c r="J114" s="76"/>
+      <c r="K114" s="76"/>
+      <c r="L114" s="76"/>
+      <c r="M114" s="76"/>
+      <c r="N114" s="76"/>
+      <c r="O114" s="76"/>
+      <c r="P114" s="76"/>
+      <c r="Q114" s="76"/>
+      <c r="R114" s="76"/>
+      <c r="S114" s="76"/>
+      <c r="T114" s="76"/>
+      <c r="U114" s="76"/>
+      <c r="V114" s="76"/>
+      <c r="W114" s="76"/>
+      <c r="X114" s="76"/>
+      <c r="Y114" s="76"/>
+      <c r="Z114" s="76"/>
+      <c r="AA114" s="76"/>
+    </row>
+    <row r="115" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B115" s="78"/>
+      <c r="C115" s="79"/>
+      <c r="D115" s="79"/>
+      <c r="E115" s="79"/>
+      <c r="F115" s="79"/>
+      <c r="G115" s="79"/>
+      <c r="H115" s="79"/>
+      <c r="I115" s="79"/>
+      <c r="J115" s="79"/>
+      <c r="K115" s="79"/>
+      <c r="L115" s="79"/>
+    </row>
+    <row r="116" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B116" s="80"/>
+      <c r="C116" s="81"/>
+      <c r="D116" s="81"/>
+      <c r="E116" s="81"/>
+      <c r="F116" s="81"/>
+      <c r="G116" s="81"/>
+      <c r="H116" s="81"/>
+      <c r="I116" s="81"/>
+      <c r="J116" s="81"/>
+      <c r="K116" s="81"/>
+      <c r="L116" s="81"/>
+    </row>
+    <row r="117" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B117" s="80"/>
+      <c r="C117" s="81"/>
+      <c r="D117" s="81"/>
+      <c r="E117" s="81"/>
+      <c r="F117" s="81"/>
+      <c r="G117" s="81"/>
+      <c r="H117" s="81"/>
+      <c r="I117" s="81"/>
+      <c r="J117" s="81"/>
+      <c r="K117" s="81"/>
+      <c r="L117" s="81"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{41365D90-4B6E-487E-8E79-3BCFDA496F98}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{4F06BEBE-0688-4D72-BCD9-1F3653D27049}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{9A4E2496-28A9-4599-B22F-4D430CD3A39B}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{6ED4E1F8-C2B9-44C3-B150-26332E8F7DF3}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{8C932F92-A1A0-4989-A83A-475D5600E8CE}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{9BE847E0-0102-413D-A6FC-F811B0E79323}"/>
+    <hyperlink ref="B110" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{FDAA3034-363B-4588-A5F7-48CC93360A17}"/>
+    <hyperlink ref="B111" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{24AAD0F2-4140-4980-92FD-740979AD75E6}"/>
+    <hyperlink ref="B113" r:id="rId3" xr:uid="{8FA086C2-1692-453E-884F-D638B2A4FBC3}"/>
+    <hyperlink ref="B108" r:id="rId4" xr:uid="{4F48FB7C-86CB-4808-AEAE-C99664EB9C4E}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{EE5852E4-189F-42A5-A824-B9EB84476F01}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId6"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
   </headerFooter>
